--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Dll1</t>
   </si>
   <si>
     <t>Notch3</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.739123</v>
+        <v>9.324771</v>
       </c>
       <c r="H2">
-        <v>32.21736900000001</v>
+        <v>27.974313</v>
       </c>
       <c r="I2">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="J2">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.987818</v>
+        <v>19.412944</v>
       </c>
       <c r="N2">
-        <v>8.963454</v>
+        <v>58.238832</v>
       </c>
       <c r="O2">
-        <v>0.03670737884717296</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P2">
-        <v>0.03670737884717296</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q2">
-        <v>32.08654500361401</v>
+        <v>181.021257235824</v>
       </c>
       <c r="R2">
-        <v>288.778905032526</v>
+        <v>1629.191315122416</v>
       </c>
       <c r="S2">
-        <v>0.02118352838508327</v>
+        <v>0.1970305141119919</v>
       </c>
       <c r="T2">
-        <v>0.02118352838508327</v>
+        <v>0.1970305141119919</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.739123</v>
+        <v>9.324771</v>
       </c>
       <c r="H3">
-        <v>32.21736900000001</v>
+        <v>27.974313</v>
       </c>
       <c r="I3">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="J3">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>14.22398</v>
       </c>
       <c r="O3">
-        <v>0.05825042696427194</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P3">
-        <v>0.05825042696427195</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q3">
-        <v>50.91769025651334</v>
+        <v>44.21178540286</v>
       </c>
       <c r="R3">
-        <v>458.2592123086201</v>
+        <v>397.90606862574</v>
       </c>
       <c r="S3">
-        <v>0.03361584541839079</v>
+        <v>0.04812181144221249</v>
       </c>
       <c r="T3">
-        <v>0.0336158454183908</v>
+        <v>0.04812181144221248</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.739123</v>
+        <v>9.324771</v>
       </c>
       <c r="H4">
-        <v>32.21736900000001</v>
+        <v>27.974313</v>
       </c>
       <c r="I4">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="J4">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1099783333333333</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N4">
-        <v>0.329935</v>
+        <v>0.245974</v>
       </c>
       <c r="O4">
-        <v>0.001351158720727747</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P4">
-        <v>0.001351158720727747</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q4">
-        <v>1.181070849001667</v>
+        <v>0.7645504073180001</v>
       </c>
       <c r="R4">
-        <v>10.629637641015</v>
+        <v>6.880953665862</v>
       </c>
       <c r="S4">
-        <v>0.0007797426569860733</v>
+        <v>0.0008321661340698437</v>
       </c>
       <c r="T4">
-        <v>0.0007797426569860733</v>
+        <v>0.0008321661340698435</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.739123</v>
+        <v>9.324771</v>
       </c>
       <c r="H5">
-        <v>32.21736900000001</v>
+        <v>27.974313</v>
       </c>
       <c r="I5">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="J5">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>72.98704766666667</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N5">
-        <v>218.961143</v>
+        <v>112.478254</v>
       </c>
       <c r="O5">
-        <v>0.8966955850848359</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P5">
-        <v>0.8966955850848359</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q5">
-        <v>783.8168822991964</v>
+        <v>349.611320343278</v>
       </c>
       <c r="R5">
-        <v>7054.351940692768</v>
+        <v>3146.501883089502</v>
       </c>
       <c r="S5">
-        <v>0.5174756949687894</v>
+        <v>0.3805304373555982</v>
       </c>
       <c r="T5">
-        <v>0.5174756949687894</v>
+        <v>0.3805304373555982</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.739123</v>
+        <v>9.324771</v>
       </c>
       <c r="H6">
-        <v>32.21736900000001</v>
+        <v>27.974313</v>
       </c>
       <c r="I6">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="J6">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,60 +806,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.357675</v>
+        <v>0.130837</v>
       </c>
       <c r="N6">
-        <v>1.073025</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O6">
-        <v>0.004394280953245005</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P6">
-        <v>0.004394280953245006</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q6">
-        <v>3.841115819025</v>
+        <v>1.220025063327</v>
       </c>
       <c r="R6">
-        <v>34.570042371225</v>
+        <v>10.980225569943</v>
       </c>
       <c r="S6">
-        <v>0.00253590363105606</v>
+        <v>0.00132792230662545</v>
       </c>
       <c r="T6">
-        <v>0.002535903631056061</v>
+        <v>0.00132792230662545</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>10.739123</v>
+        <v>0.09132666666666667</v>
       </c>
       <c r="H7">
-        <v>32.21736900000001</v>
+        <v>0.27398</v>
       </c>
       <c r="I7">
-        <v>0.5770918286832329</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="J7">
-        <v>0.5770918286832329</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2117236666666667</v>
+        <v>19.412944</v>
       </c>
       <c r="N7">
-        <v>0.635171</v>
+        <v>58.238832</v>
       </c>
       <c r="O7">
-        <v>0.002601169429746356</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P7">
-        <v>0.002601169429746356</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q7">
-        <v>2.273726498344334</v>
+        <v>1.772919465706667</v>
       </c>
       <c r="R7">
-        <v>20.463538485099</v>
+        <v>15.95627519136</v>
       </c>
       <c r="S7">
-        <v>0.001501113622927247</v>
+        <v>0.001929713886321481</v>
       </c>
       <c r="T7">
-        <v>0.001501113622927247</v>
+        <v>0.001929713886321481</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -921,10 +918,10 @@
         <v>0.27398</v>
       </c>
       <c r="I8">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="J8">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.987818</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N8">
-        <v>8.963454</v>
+        <v>14.22398</v>
       </c>
       <c r="O8">
-        <v>0.03670737884717296</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P8">
-        <v>0.03670737884717296</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q8">
-        <v>0.2728674585466667</v>
+        <v>0.4330095600444445</v>
       </c>
       <c r="R8">
-        <v>2.45580712692</v>
+        <v>3.8970860404</v>
       </c>
       <c r="S8">
-        <v>0.0001801470227734957</v>
+        <v>0.0004713042961568843</v>
       </c>
       <c r="T8">
-        <v>0.0001801470227734957</v>
+        <v>0.0004713042961568842</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -983,40 +980,40 @@
         <v>0.27398</v>
       </c>
       <c r="I9">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="J9">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.741326666666667</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N9">
-        <v>14.22398</v>
+        <v>0.245974</v>
       </c>
       <c r="O9">
-        <v>0.05825042696427194</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P9">
-        <v>0.05825042696427195</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q9">
-        <v>0.4330095600444445</v>
+        <v>0.007487995168888889</v>
       </c>
       <c r="R9">
-        <v>3.8970860404</v>
+        <v>0.06739195652</v>
       </c>
       <c r="S9">
-        <v>0.0002858727951289477</v>
+        <v>8.150222577850465E-06</v>
       </c>
       <c r="T9">
-        <v>0.0002858727951289477</v>
+        <v>8.150222577850463E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1045,40 +1042,40 @@
         <v>0.27398</v>
       </c>
       <c r="I10">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="J10">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1099783333333333</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N10">
-        <v>0.329935</v>
+        <v>112.478254</v>
       </c>
       <c r="O10">
-        <v>0.001351158720727747</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P10">
-        <v>0.001351158720727747</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q10">
-        <v>0.01004395458888889</v>
+        <v>3.424088003435555</v>
       </c>
       <c r="R10">
-        <v>0.09039559129999999</v>
+        <v>30.81679203092</v>
       </c>
       <c r="S10">
-        <v>6.631016119318879E-06</v>
+        <v>0.003726909369559381</v>
       </c>
       <c r="T10">
-        <v>6.631016119318879E-06</v>
+        <v>0.00372690936955938</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1107,54 +1104,54 @@
         <v>0.27398</v>
       </c>
       <c r="I11">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="J11">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>72.98704766666667</v>
+        <v>0.130837</v>
       </c>
       <c r="N11">
-        <v>218.961143</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O11">
-        <v>0.8966955850848359</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P11">
-        <v>0.8966955850848359</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q11">
-        <v>6.665663773237778</v>
+        <v>0.01194890708666667</v>
       </c>
       <c r="R11">
-        <v>59.99097395914</v>
+        <v>0.10754016378</v>
       </c>
       <c r="S11">
-        <v>0.004400669431062137</v>
+        <v>1.300565106171654E-05</v>
       </c>
       <c r="T11">
-        <v>0.004400669431062137</v>
+        <v>1.300565106171654E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,60 +1160,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.09132666666666667</v>
+        <v>0.366213</v>
       </c>
       <c r="H12">
-        <v>0.27398</v>
+        <v>1.098639</v>
       </c>
       <c r="I12">
-        <v>0.004907651497632602</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="J12">
-        <v>0.004907651497632602</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.357675</v>
+        <v>19.412944</v>
       </c>
       <c r="N12">
-        <v>1.073025</v>
+        <v>58.238832</v>
       </c>
       <c r="O12">
-        <v>0.004394280953245005</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P12">
-        <v>0.004394280953245006</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q12">
-        <v>0.0326652655</v>
+        <v>7.109272461071999</v>
       </c>
       <c r="R12">
-        <v>0.2939873895</v>
+        <v>63.98345214964799</v>
       </c>
       <c r="S12">
-        <v>2.156559950121126E-05</v>
+        <v>0.007738006184226389</v>
       </c>
       <c r="T12">
-        <v>2.156559950121127E-05</v>
+        <v>0.007738006184226386</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1225,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.09132666666666667</v>
+        <v>0.366213</v>
       </c>
       <c r="H13">
-        <v>0.27398</v>
+        <v>1.098639</v>
       </c>
       <c r="I13">
-        <v>0.004907651497632602</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="J13">
-        <v>0.004907651497632602</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2117236666666667</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N13">
-        <v>0.635171</v>
+        <v>14.22398</v>
       </c>
       <c r="O13">
-        <v>0.002601169429746356</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P13">
-        <v>0.002601169429746356</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q13">
-        <v>0.01933601673111111</v>
+        <v>1.73633546258</v>
       </c>
       <c r="R13">
-        <v>0.17402415058</v>
+        <v>15.62701916322</v>
       </c>
       <c r="S13">
-        <v>1.276563304749084E-05</v>
+        <v>0.001889894447133014</v>
       </c>
       <c r="T13">
-        <v>1.276563304749084E-05</v>
+        <v>0.001889894447133014</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>7.778586999999999</v>
+        <v>0.366213</v>
       </c>
       <c r="H14">
-        <v>23.335761</v>
+        <v>1.098639</v>
       </c>
       <c r="I14">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="J14">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>2.987818</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N14">
-        <v>8.963454</v>
+        <v>0.245974</v>
       </c>
       <c r="O14">
-        <v>0.03670737884717296</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P14">
-        <v>0.03670737884717296</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q14">
-        <v>23.241002253166</v>
+        <v>0.030026292154</v>
       </c>
       <c r="R14">
-        <v>209.169020278494</v>
+        <v>0.270236629386</v>
       </c>
       <c r="S14">
-        <v>0.0153437034393162</v>
+        <v>3.268177378898845E-05</v>
       </c>
       <c r="T14">
-        <v>0.0153437034393162</v>
+        <v>3.268177378898844E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>7.778586999999999</v>
+        <v>0.366213</v>
       </c>
       <c r="H15">
-        <v>23.335761</v>
+        <v>1.098639</v>
       </c>
       <c r="I15">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="J15">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.741326666666667</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N15">
-        <v>14.22398</v>
+        <v>112.478254</v>
       </c>
       <c r="O15">
-        <v>0.05825042696427194</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P15">
-        <v>0.05825042696427195</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q15">
-        <v>36.88082197208666</v>
+        <v>13.730332944034</v>
       </c>
       <c r="R15">
-        <v>331.92739774878</v>
+        <v>123.572996496306</v>
       </c>
       <c r="S15">
-        <v>0.02434870875075219</v>
+        <v>0.01494462363261314</v>
       </c>
       <c r="T15">
-        <v>0.0243487087507522</v>
+        <v>0.01494462363261314</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>7.778586999999999</v>
+        <v>0.366213</v>
       </c>
       <c r="H16">
-        <v>23.335761</v>
+        <v>1.098639</v>
       </c>
       <c r="I16">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="J16">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,42 +1426,42 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1099783333333333</v>
+        <v>0.130837</v>
       </c>
       <c r="N16">
-        <v>0.329935</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O16">
-        <v>0.001351158720727747</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P16">
-        <v>0.001351158720727747</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q16">
-        <v>0.8554760339483332</v>
+        <v>0.047914210281</v>
       </c>
       <c r="R16">
-        <v>7.699284305534999</v>
+        <v>0.431227892529</v>
       </c>
       <c r="S16">
-        <v>0.000564785047622355</v>
+        <v>5.215167339511349E-05</v>
       </c>
       <c r="T16">
-        <v>0.000564785047622355</v>
+        <v>5.215167339511349E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.778586999999999</v>
+        <v>5.013987</v>
       </c>
       <c r="H17">
-        <v>23.335761</v>
+        <v>15.041961</v>
       </c>
       <c r="I17">
-        <v>0.4180005198191344</v>
+        <v>0.3375949816584589</v>
       </c>
       <c r="J17">
-        <v>0.4180005198191344</v>
+        <v>0.3375949816584588</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,42 +1488,42 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>72.98704766666667</v>
+        <v>19.412944</v>
       </c>
       <c r="N17">
-        <v>218.961143</v>
+        <v>58.238832</v>
       </c>
       <c r="O17">
-        <v>0.8966955850848359</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P17">
-        <v>0.8966955850848359</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q17">
-        <v>567.7361001483137</v>
+        <v>97.336248847728</v>
       </c>
       <c r="R17">
-        <v>5109.624901334822</v>
+        <v>876.0262396295519</v>
       </c>
       <c r="S17">
-        <v>0.3748192206849842</v>
+        <v>0.1059445252179216</v>
       </c>
       <c r="T17">
-        <v>0.3748192206849842</v>
+        <v>0.1059445252179216</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,108 +1532,542 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.778586999999999</v>
+        <v>5.013987</v>
       </c>
       <c r="H18">
-        <v>23.335761</v>
+        <v>15.041961</v>
       </c>
       <c r="I18">
-        <v>0.4180005198191344</v>
+        <v>0.3375949816584589</v>
       </c>
       <c r="J18">
-        <v>0.4180005198191344</v>
+        <v>0.3375949816584588</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.357675</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N18">
-        <v>1.073025</v>
+        <v>14.22398</v>
       </c>
       <c r="O18">
-        <v>0.004394280953245005</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P18">
-        <v>0.004394280953245006</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q18">
-        <v>2.782206105224999</v>
+        <v>23.77295026942</v>
       </c>
       <c r="R18">
-        <v>25.039854947025</v>
+        <v>213.95655242478</v>
       </c>
       <c r="S18">
-        <v>0.001836811722687733</v>
+        <v>0.0258753954373469</v>
       </c>
       <c r="T18">
-        <v>0.001836811722687734</v>
+        <v>0.02587539543734689</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.013987</v>
+      </c>
+      <c r="H19">
+        <v>15.041961</v>
+      </c>
+      <c r="I19">
+        <v>0.3375949816584589</v>
+      </c>
+      <c r="J19">
+        <v>0.3375949816584588</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.08199133333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.245974</v>
+      </c>
+      <c r="O19">
+        <v>0.001325436982008864</v>
+      </c>
+      <c r="P19">
+        <v>0.001325436982008864</v>
+      </c>
+      <c r="Q19">
+        <v>0.411103479446</v>
+      </c>
+      <c r="R19">
+        <v>3.699931315014</v>
+      </c>
+      <c r="S19">
+        <v>0.0004474608736307255</v>
+      </c>
+      <c r="T19">
+        <v>0.0004474608736307253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5.013987</v>
+      </c>
+      <c r="H20">
+        <v>15.041961</v>
+      </c>
+      <c r="I20">
+        <v>0.3375949816584589</v>
+      </c>
+      <c r="J20">
+        <v>0.3375949816584588</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>37.49275133333333</v>
+      </c>
+      <c r="N20">
+        <v>112.478254</v>
+      </c>
+      <c r="O20">
+        <v>0.6060918532990739</v>
+      </c>
+      <c r="P20">
+        <v>0.6060918532990738</v>
+      </c>
+      <c r="Q20">
+        <v>187.988167779566</v>
+      </c>
+      <c r="R20">
+        <v>1691.893510016094</v>
+      </c>
+      <c r="S20">
+        <v>0.2046135680978422</v>
+      </c>
+      <c r="T20">
+        <v>0.2046135680978421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>7.778586999999999</v>
-      </c>
-      <c r="H19">
-        <v>23.335761</v>
-      </c>
-      <c r="I19">
-        <v>0.4180005198191344</v>
-      </c>
-      <c r="J19">
-        <v>0.4180005198191344</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.2117236666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.635171</v>
-      </c>
-      <c r="O19">
-        <v>0.002601169429746356</v>
-      </c>
-      <c r="P19">
-        <v>0.002601169429746356</v>
-      </c>
-      <c r="Q19">
-        <v>1.646910961125666</v>
-      </c>
-      <c r="R19">
-        <v>14.822198650131</v>
-      </c>
-      <c r="S19">
-        <v>0.001087290173771618</v>
-      </c>
-      <c r="T19">
-        <v>0.001087290173771618</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.013987</v>
+      </c>
+      <c r="H21">
+        <v>15.041961</v>
+      </c>
+      <c r="I21">
+        <v>0.3375949816584589</v>
+      </c>
+      <c r="J21">
+        <v>0.3375949816584588</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.130837</v>
+      </c>
+      <c r="N21">
+        <v>0.3925110000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.002115055230411674</v>
+      </c>
+      <c r="P21">
+        <v>0.002115055230411674</v>
+      </c>
+      <c r="Q21">
+        <v>0.6560150171190001</v>
+      </c>
+      <c r="R21">
+        <v>5.904135154071001</v>
+      </c>
+      <c r="S21">
+        <v>0.0007140320317174566</v>
+      </c>
+      <c r="T21">
+        <v>0.0007140320317174565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.05578033333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.167341</v>
+      </c>
+      <c r="I22">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="J22">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>19.412944</v>
+      </c>
+      <c r="N22">
+        <v>58.238832</v>
+      </c>
+      <c r="O22">
+        <v>0.3138213864953257</v>
+      </c>
+      <c r="P22">
+        <v>0.3138213864953256</v>
+      </c>
+      <c r="Q22">
+        <v>1.082860487301333</v>
+      </c>
+      <c r="R22">
+        <v>9.745744385711999</v>
+      </c>
+      <c r="S22">
+        <v>0.001178627094864308</v>
+      </c>
+      <c r="T22">
+        <v>0.001178627094864307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.05578033333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.167341</v>
+      </c>
+      <c r="I23">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="J23">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.741326666666667</v>
+      </c>
+      <c r="N23">
+        <v>14.22398</v>
+      </c>
+      <c r="O23">
+        <v>0.07664626799317993</v>
+      </c>
+      <c r="P23">
+        <v>0.07664626799317992</v>
+      </c>
+      <c r="Q23">
+        <v>0.2644727819088888</v>
+      </c>
+      <c r="R23">
+        <v>2.38025503718</v>
+      </c>
+      <c r="S23">
+        <v>0.0002878623703306415</v>
+      </c>
+      <c r="T23">
+        <v>0.0002878623703306415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.05578033333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.167341</v>
+      </c>
+      <c r="I24">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="J24">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.08199133333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.245974</v>
+      </c>
+      <c r="O24">
+        <v>0.001325436982008864</v>
+      </c>
+      <c r="P24">
+        <v>0.001325436982008864</v>
+      </c>
+      <c r="Q24">
+        <v>0.004573503903777777</v>
+      </c>
+      <c r="R24">
+        <v>0.041161535134</v>
+      </c>
+      <c r="S24">
+        <v>4.977977941455852E-06</v>
+      </c>
+      <c r="T24">
+        <v>4.977977941455851E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.05578033333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.167341</v>
+      </c>
+      <c r="I25">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="J25">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>37.49275133333333</v>
+      </c>
+      <c r="N25">
+        <v>112.478254</v>
+      </c>
+      <c r="O25">
+        <v>0.6060918532990739</v>
+      </c>
+      <c r="P25">
+        <v>0.6060918532990738</v>
+      </c>
+      <c r="Q25">
+        <v>2.091358166957111</v>
+      </c>
+      <c r="R25">
+        <v>18.822223502614</v>
+      </c>
+      <c r="S25">
+        <v>0.002276314843460969</v>
+      </c>
+      <c r="T25">
+        <v>0.002276314843460968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.05578033333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.167341</v>
+      </c>
+      <c r="I26">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="J26">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.130837</v>
+      </c>
+      <c r="N26">
+        <v>0.3925110000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.002115055230411674</v>
+      </c>
+      <c r="P26">
+        <v>0.002115055230411674</v>
+      </c>
+      <c r="Q26">
+        <v>0.007298131472333333</v>
+      </c>
+      <c r="R26">
+        <v>0.065683183251</v>
+      </c>
+      <c r="S26">
+        <v>7.943567611937758E-06</v>
+      </c>
+      <c r="T26">
+        <v>7.943567611937758E-06</v>
       </c>
     </row>
   </sheetData>
